--- a/Gasoline-Moving_Average.xlsx
+++ b/Gasoline-Moving_Average.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-man\OneDrive\Desktop\QMBE_3730_ABA_Erik_Aune_2025\QMBE_3730_ABA_Erik_Aune_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDA21C2C-A515-4BD1-8C6F-09C8CE78D99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4C706F-B573-4878-A8E8-0F8E8DF1F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,7 +970,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C14" si="0">0.8*B3+0.2*C4</f>
+        <f>0.8*B3+0.2*C4</f>
         <v>20.200000000000003</v>
       </c>
     </row>
@@ -982,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C14" si="0">0.8*B4+0.2*C5</f>
         <v>19.240000000000002</v>
       </c>
     </row>
